--- a/data_year/zb/文化/文物业基本情况/文物业藏品征集数.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业藏品征集数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,528 +498,489 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306</v>
+        <v>1508</v>
       </c>
       <c r="C2" t="n">
-        <v>237</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>5728</v>
+      </c>
+      <c r="D2" t="n">
+        <v>173538</v>
+      </c>
       <c r="E2" t="n">
-        <v>94762</v>
+        <v>314026</v>
       </c>
       <c r="F2" t="n">
-        <v>40847</v>
+        <v>85343</v>
       </c>
       <c r="G2" t="n">
-        <v>47062</v>
+        <v>209040</v>
       </c>
       <c r="H2" t="n">
-        <v>106669</v>
+        <v>333054</v>
       </c>
       <c r="I2" t="n">
-        <v>11389</v>
+        <v>13003</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>281</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>297</v>
+      </c>
+      <c r="L2" t="n">
+        <v>159516</v>
+      </c>
       <c r="M2" t="n">
-        <v>18454</v>
+        <v>37163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>848</v>
+        <v>893</v>
       </c>
       <c r="C3" t="n">
-        <v>1289</v>
+        <v>1128</v>
       </c>
       <c r="D3" t="n">
-        <v>21053</v>
+        <v>6955</v>
       </c>
       <c r="E3" t="n">
-        <v>150680</v>
+        <v>79496</v>
       </c>
       <c r="F3" t="n">
-        <v>62541</v>
+        <v>30229</v>
       </c>
       <c r="G3" t="n">
-        <v>48259</v>
+        <v>26708</v>
       </c>
       <c r="H3" t="n">
-        <v>161630</v>
+        <v>90365</v>
       </c>
       <c r="I3" t="n">
-        <v>9414</v>
+        <v>9661</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>140577</v>
+        <v>83410</v>
       </c>
       <c r="M3" t="n">
-        <v>49982</v>
+        <v>32535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1508</v>
+        <v>1187</v>
       </c>
       <c r="C4" t="n">
-        <v>5728</v>
+        <v>1061</v>
       </c>
       <c r="D4" t="n">
-        <v>173538</v>
+        <v>14821</v>
       </c>
       <c r="E4" t="n">
-        <v>314026</v>
+        <v>116796</v>
       </c>
       <c r="F4" t="n">
-        <v>85343</v>
+        <v>54652</v>
       </c>
       <c r="G4" t="n">
-        <v>209040</v>
+        <v>41557</v>
       </c>
       <c r="H4" t="n">
-        <v>333054</v>
+        <v>124484</v>
       </c>
       <c r="I4" t="n">
-        <v>13003</v>
+        <v>6604</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>159516</v>
+        <v>109663</v>
       </c>
       <c r="M4" t="n">
-        <v>37163</v>
+        <v>27088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893</v>
+        <v>2502</v>
       </c>
       <c r="C5" t="n">
-        <v>1128</v>
+        <v>239</v>
       </c>
       <c r="D5" t="n">
-        <v>6955</v>
+        <v>121810</v>
       </c>
       <c r="E5" t="n">
-        <v>79496</v>
+        <v>304839</v>
       </c>
       <c r="F5" t="n">
-        <v>30229</v>
+        <v>167685</v>
       </c>
       <c r="G5" t="n">
-        <v>26708</v>
+        <v>97894</v>
       </c>
       <c r="H5" t="n">
-        <v>90365</v>
+        <v>313553</v>
       </c>
       <c r="I5" t="n">
-        <v>9661</v>
+        <v>8425</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L5" t="n">
-        <v>83410</v>
+        <v>191743</v>
       </c>
       <c r="M5" t="n">
-        <v>32535</v>
+        <v>45472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187</v>
+        <v>2490</v>
       </c>
       <c r="C6" t="n">
-        <v>1061</v>
+        <v>152</v>
       </c>
       <c r="D6" t="n">
-        <v>14821</v>
+        <v>145599</v>
       </c>
       <c r="E6" t="n">
-        <v>116796</v>
+        <v>298148</v>
       </c>
       <c r="F6" t="n">
-        <v>54652</v>
+        <v>186898</v>
       </c>
       <c r="G6" t="n">
-        <v>41557</v>
+        <v>60374</v>
       </c>
       <c r="H6" t="n">
-        <v>124484</v>
+        <v>315092</v>
       </c>
       <c r="I6" t="n">
-        <v>6604</v>
+        <v>16671</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="L6" t="n">
-        <v>109663</v>
+        <v>169493</v>
       </c>
       <c r="M6" t="n">
-        <v>27088</v>
+        <v>65330</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2502</v>
+        <v>866</v>
       </c>
       <c r="C7" t="n">
-        <v>239</v>
+        <v>1370</v>
       </c>
       <c r="D7" t="n">
-        <v>121810</v>
+        <v>78134</v>
       </c>
       <c r="E7" t="n">
-        <v>304839</v>
+        <v>197184</v>
       </c>
       <c r="F7" t="n">
-        <v>167685</v>
+        <v>124433</v>
       </c>
       <c r="G7" t="n">
-        <v>97894</v>
+        <v>64563</v>
       </c>
       <c r="H7" t="n">
-        <v>313553</v>
+        <v>219288</v>
       </c>
       <c r="I7" t="n">
-        <v>8425</v>
+        <v>20644</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L7" t="n">
-        <v>191743</v>
+        <v>141154</v>
       </c>
       <c r="M7" t="n">
-        <v>45472</v>
+        <v>29426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2490</v>
+        <v>2991</v>
       </c>
       <c r="C8" t="n">
-        <v>152</v>
+        <v>4362</v>
       </c>
       <c r="D8" t="n">
-        <v>145599</v>
+        <v>191645</v>
       </c>
       <c r="E8" t="n">
-        <v>298148</v>
+        <v>379944</v>
       </c>
       <c r="F8" t="n">
-        <v>186898</v>
+        <v>282261</v>
       </c>
       <c r="G8" t="n">
-        <v>60374</v>
+        <v>92282</v>
       </c>
       <c r="H8" t="n">
-        <v>315092</v>
+        <v>417577</v>
       </c>
       <c r="I8" t="n">
-        <v>16671</v>
+        <v>30388</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>121</v>
+        <v>2883</v>
       </c>
       <c r="L8" t="n">
-        <v>169493</v>
+        <v>225932</v>
       </c>
       <c r="M8" t="n">
-        <v>65330</v>
+        <v>40043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>866</v>
+        <v>2314</v>
       </c>
       <c r="C9" t="n">
-        <v>1370</v>
+        <v>1694</v>
       </c>
       <c r="D9" t="n">
-        <v>78134</v>
+        <v>165125</v>
       </c>
       <c r="E9" t="n">
-        <v>197184</v>
+        <v>399071</v>
       </c>
       <c r="F9" t="n">
-        <v>124433</v>
+        <v>245628</v>
       </c>
       <c r="G9" t="n">
-        <v>64563</v>
+        <v>115662</v>
       </c>
       <c r="H9" t="n">
-        <v>219288</v>
+        <v>425739</v>
       </c>
       <c r="I9" t="n">
-        <v>20644</v>
+        <v>24966</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>141154</v>
+        <v>260614</v>
       </c>
       <c r="M9" t="n">
-        <v>29426</v>
+        <v>62135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2991</v>
+        <v>1567</v>
       </c>
       <c r="C10" t="n">
-        <v>4362</v>
+        <v>12323</v>
       </c>
       <c r="D10" t="n">
-        <v>191645</v>
+        <v>144372</v>
       </c>
       <c r="E10" t="n">
-        <v>379944</v>
+        <v>356435</v>
       </c>
       <c r="F10" t="n">
-        <v>282261</v>
+        <v>221425</v>
       </c>
       <c r="G10" t="n">
-        <v>92282</v>
+        <v>130521</v>
       </c>
       <c r="H10" t="n">
-        <v>417577</v>
+        <v>382151</v>
       </c>
       <c r="I10" t="n">
-        <v>30388</v>
+        <v>13393</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>2883</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>225932</v>
+        <v>237779</v>
       </c>
       <c r="M10" t="n">
-        <v>40043</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2314</v>
+        <v>2959</v>
       </c>
       <c r="C11" t="n">
-        <v>1694</v>
+        <v>16276</v>
       </c>
       <c r="D11" t="n">
-        <v>165125</v>
+        <v>113425</v>
       </c>
       <c r="E11" t="n">
-        <v>399071</v>
+        <v>329731</v>
       </c>
       <c r="F11" t="n">
-        <v>245628</v>
+        <v>196246</v>
       </c>
       <c r="G11" t="n">
-        <v>115662</v>
+        <v>137264</v>
       </c>
       <c r="H11" t="n">
-        <v>425739</v>
+        <v>358400</v>
       </c>
       <c r="I11" t="n">
-        <v>24966</v>
+        <v>12382</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>260614</v>
+        <v>244975</v>
       </c>
       <c r="M11" t="n">
-        <v>62135</v>
+        <v>21931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1567</v>
+        <v>31565</v>
       </c>
       <c r="C12" t="n">
-        <v>12323</v>
+        <v>88459</v>
       </c>
       <c r="D12" t="n">
-        <v>144372</v>
+        <v>566577</v>
       </c>
       <c r="E12" t="n">
-        <v>356435</v>
+        <v>839719</v>
       </c>
       <c r="F12" t="n">
-        <v>221425</v>
+        <v>681120</v>
       </c>
       <c r="G12" t="n">
-        <v>130521</v>
+        <v>182801</v>
       </c>
       <c r="H12" t="n">
-        <v>382151</v>
+        <v>938657</v>
       </c>
       <c r="I12" t="n">
-        <v>13393</v>
+        <v>9895</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>584</v>
+      </c>
       <c r="L12" t="n">
-        <v>237779</v>
+        <v>372080</v>
       </c>
       <c r="M12" t="n">
-        <v>28638</v>
+        <v>43171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2959</v>
+        <v>12208</v>
       </c>
       <c r="C13" t="n">
-        <v>16276</v>
+        <v>79360</v>
       </c>
       <c r="D13" t="n">
-        <v>113425</v>
+        <v>116915</v>
       </c>
       <c r="E13" t="n">
-        <v>329731</v>
+        <v>411340</v>
       </c>
       <c r="F13" t="n">
-        <v>196246</v>
+        <v>240569</v>
       </c>
       <c r="G13" t="n">
-        <v>137264</v>
+        <v>95280</v>
       </c>
       <c r="H13" t="n">
-        <v>358400</v>
+        <v>520053</v>
       </c>
       <c r="I13" t="n">
-        <v>12382</v>
+        <v>29353</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>244975</v>
+        <v>403138</v>
       </c>
       <c r="M13" t="n">
-        <v>21931</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>31565</v>
-      </c>
-      <c r="C14" t="n">
-        <v>88459</v>
-      </c>
-      <c r="D14" t="n">
-        <v>566577</v>
-      </c>
-      <c r="E14" t="n">
-        <v>839719</v>
-      </c>
-      <c r="F14" t="n">
-        <v>681120</v>
-      </c>
-      <c r="G14" t="n">
-        <v>182801</v>
-      </c>
-      <c r="H14" t="n">
-        <v>938657</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9895</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>584</v>
-      </c>
-      <c r="L14" t="n">
-        <v>372080</v>
-      </c>
-      <c r="M14" t="n">
-        <v>43171</v>
+        <v>171996</v>
       </c>
     </row>
   </sheetData>
